--- a/POM/Test Components/Test configuration File.xlsx
+++ b/POM/Test Components/Test configuration File.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium Automation\Test Automation Framework\Test Components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mounisha.m\git\POMFramework\POM\Test Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A7152E-522C-471B-8D40-88FD17483027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2886B26-20E4-4B6D-8029-1DD9AFFFC9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63066762-D2D9-4526-BBA7-B279F43045E6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Key </t>
   </si>
@@ -43,9 +43,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>http://stageintranet.wardtlc.com/</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -61,15 +58,6 @@
     <t>SheetIndex</t>
   </si>
   <si>
-    <t>TestResultWriteIndex</t>
-  </si>
-  <si>
-    <t>TestCommentWriteIndex</t>
-  </si>
-  <si>
-    <t>TestScriptWritepath</t>
-  </si>
-  <si>
     <t>ScreenshotFolderPath</t>
   </si>
   <si>
@@ -82,34 +70,43 @@
     <t>png</t>
   </si>
   <si>
-    <t>D:\\Selenium Automation\\Test Automation Framework\\Test Components\\Application Locators.xlsx</t>
-  </si>
-  <si>
-    <t>D:\\Selenium Automation\\Test Automation Framework\\Test Components\\TestData.xlsx</t>
-  </si>
-  <si>
-    <t>D:\\Selenium Automation\\Test Automation Framework\\Test Components\\TestScript_Executed.xlsx</t>
-  </si>
-  <si>
-    <t>Password@321</t>
-  </si>
-  <si>
-    <t>Perrytest</t>
-  </si>
-  <si>
-    <t>D:/Selenium Automation/Test Automation Framework/ScreenShot/</t>
-  </si>
-  <si>
-    <t>D:\\Selenium Automation\\Test Automation Framework\\ScreenShot\\</t>
-  </si>
-  <si>
     <t>AppLoginURL</t>
   </si>
   <si>
-    <t>APPURL</t>
-  </si>
-  <si>
-    <t>http://stageintranet.wardtlc.com/ForkLiftDamage/Pages/ForkliftGrid.aspx</t>
+    <t>SNO</t>
+  </si>
+  <si>
+    <t>C:\\Users\\mounisha.m\\git\\POMFramework\\POM\\Test Components\\Application Locators.xlsx</t>
+  </si>
+  <si>
+    <t>C:\\Users\\mounisha.m\\git\\POMFramework\\POM\\Test Components\\TestData.xlsx</t>
+  </si>
+  <si>
+    <t>C:\\Users\\mounisha.m\\git\\POMFramework\\POM\\ScreenShot\\</t>
+  </si>
+  <si>
+    <t>TestScriptpath</t>
+  </si>
+  <si>
+    <t>C:\\Users\\mounisha.m\\git\\POMFramework\\POM\\Test Components\\TestScript.xlsx</t>
+  </si>
+  <si>
+    <t>C:/Users/mounisha.m/git/POMFramework/POM/ScreenShot/</t>
+  </si>
+  <si>
+    <t>SDIUSER</t>
+  </si>
+  <si>
+    <t>15SDI20</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.guru99.com/</t>
   </si>
 </sst>
 </file>
@@ -169,11 +166,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -489,133 +485,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF09EF3-D111-4518-AE14-6880C384CE67}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5893AF0C-4758-455C-BECD-B3D70D71AB65}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{52253360-FD86-471F-A90A-4CBD0BA04AE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/POM/Test Components/Test configuration File.xlsx
+++ b/POM/Test Components/Test configuration File.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mounisha.m\git\POMFramework\POM\Test Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2886B26-20E4-4B6D-8029-1DD9AFFFC9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490FAA6D-B39F-45B4-9E60-82D14D26489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63066762-D2D9-4526-BBA7-B279F43045E6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Key </t>
   </si>
@@ -82,49 +82,35 @@
     <t>C:\\Users\\mounisha.m\\git\\POMFramework\\POM\\Test Components\\TestData.xlsx</t>
   </si>
   <si>
-    <t>C:\\Users\\mounisha.m\\git\\POMFramework\\POM\\ScreenShot\\</t>
-  </si>
-  <si>
     <t>TestScriptpath</t>
   </si>
   <si>
     <t>C:\\Users\\mounisha.m\\git\\POMFramework\\POM\\Test Components\\TestScript.xlsx</t>
   </si>
   <si>
-    <t>C:/Users/mounisha.m/git/POMFramework/POM/ScreenShot/</t>
-  </si>
-  <si>
     <t>SDIUSER</t>
   </si>
   <si>
     <t>15SDI20</t>
   </si>
   <si>
-    <t>https://www.google.com/maps</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>https://www.guru99.com/</t>
+    <t>C:\\Users\\mounisha.m\\git\\POMFramework\\POM\\reports\\ScreenShot\\</t>
+  </si>
+  <si>
+    <t>C:/Users/mounisha.m/git/POMFramework/POM/reports/ScreenShot/</t>
+  </si>
+  <si>
+    <t>https://walmarttest.sdi.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,17 +148,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF09EF3-D111-4518-AE14-6880C384CE67}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,7 +498,7 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -524,10 +507,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -535,10 +518,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -546,10 +529,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -557,10 +540,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -568,10 +551,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -579,10 +562,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -590,10 +573,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -601,10 +584,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -612,28 +595,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C11" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{52253360-FD86-471F-A90A-4CBD0BA04AE7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>